--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03007113781314996</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.807479884260528</v>
+        <v>-1.812483691047142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04118511145855337</v>
+        <v>0.04053504156145619</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07573302887166172</v>
+        <v>-0.07435576214052361</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03683920655103903</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.843660287782745</v>
+        <v>-1.845955994671162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01688697828303466</v>
+        <v>0.0153837900221925</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06286857059327119</v>
+        <v>-0.06300078819946045</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05312528592649142</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.944066967530516</v>
+        <v>-1.946176153153059</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01514273681631304</v>
+        <v>-0.01401573912546175</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0624262712201857</v>
+        <v>-0.06060355707771951</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08520562884105685</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.994160913075471</v>
+        <v>-1.998803482473748</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03602839653685187</v>
+        <v>-0.0354208251560298</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05953637211347764</v>
+        <v>-0.05828030485467969</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1372650283312273</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.959459300517715</v>
+        <v>-1.96714917093483</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02338115289720084</v>
+        <v>-0.02424214135655232</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07344597908841181</v>
+        <v>-0.07104559992842827</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2096886469532467</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.835605244929489</v>
+        <v>-1.844740064899957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01758741679201346</v>
+        <v>0.01666504158693126</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06732147068743084</v>
+        <v>-0.06669658509627446</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2993637539742623</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.57028307277612</v>
+        <v>-1.581446803393945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647355918374695</v>
+        <v>0.05647041114550435</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06389797909860184</v>
+        <v>-0.06366345024952805</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3986209399010027</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.172686629745127</v>
+        <v>-1.186846505760348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05340894395457451</v>
+        <v>0.05500972140093732</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04967829035677143</v>
+        <v>-0.04979476777174768</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4962123841105995</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6684283549783144</v>
+        <v>-0.6831958023743575</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04884114046455992</v>
+        <v>0.05105421134910868</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01882436754103535</v>
+        <v>-0.0180137476935655</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5769129342802086</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1602373934369317</v>
+        <v>-0.1746207801673774</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04492790064868596</v>
+        <v>-0.04216707110992455</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0199657596842988</v>
+        <v>0.02086609862168279</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.624703103115188</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4226801258882011</v>
+        <v>0.4072531644803331</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2297948724263304</v>
+        <v>-0.2292297995617835</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0817586023483212</v>
+        <v>0.08316734946188532</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.628169071441354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9986121483530014</v>
+        <v>0.9808839709897917</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5186147890320363</v>
+        <v>-0.5209522074271677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1735963219997311</v>
+        <v>0.1753576493964666</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.5839588153569184</v>
       </c>
       <c r="E14" t="n">
-        <v>1.583483025407668</v>
+        <v>1.563741677588315</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8327890056436535</v>
+        <v>-0.836749237752846</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2829843548536437</v>
+        <v>0.2870295839953865</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.4974757305582054</v>
       </c>
       <c r="E15" t="n">
-        <v>2.258298077110821</v>
+        <v>2.23459020110579</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.171490375212939</v>
+        <v>-1.176010958129314</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4039886488227554</v>
+        <v>0.4075034335206199</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3774635319821067</v>
       </c>
       <c r="E16" t="n">
-        <v>2.794829252931222</v>
+        <v>2.768177961169359</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.52106585588173</v>
+        <v>-1.525760367911009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5277490502732646</v>
+        <v>0.5296189849893698</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.2341782583813186</v>
       </c>
       <c r="E17" t="n">
-        <v>3.293011026880253</v>
+        <v>3.266279460143204</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.862352551857752</v>
+        <v>-1.867057295011319</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6528945885505184</v>
+        <v>0.6568878750612582</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.07648603759384032</v>
       </c>
       <c r="E18" t="n">
-        <v>3.711009118751986</v>
+        <v>3.68696912471236</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.179546524153584</v>
+        <v>-2.18725056074279</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8046709563410585</v>
+        <v>0.8074003054973938</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.08883478112517633</v>
       </c>
       <c r="E19" t="n">
-        <v>4.062750449731687</v>
+        <v>4.0405977046185</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.53644906383203</v>
+        <v>-2.545570504639967</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9488825882346275</v>
+        <v>0.9518685025077349</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2544748369159577</v>
       </c>
       <c r="E20" t="n">
-        <v>4.371872064963928</v>
+        <v>4.348535657471524</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.863827726852239</v>
+        <v>-2.875283438017065</v>
       </c>
       <c r="G20" t="n">
-        <v>1.074931613487508</v>
+        <v>1.079995233000732</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.414275489024191</v>
       </c>
       <c r="E21" t="n">
-        <v>4.598302585658639</v>
+        <v>4.579126310703833</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.139905958671015</v>
+        <v>-3.152771203958967</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187275654251223</v>
+        <v>1.193935329153446</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.561471170486149</v>
       </c>
       <c r="E22" t="n">
-        <v>4.766464492501919</v>
+        <v>4.747451915535728</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.36447834979303</v>
+        <v>-3.380539640906782</v>
       </c>
       <c r="G22" t="n">
-        <v>1.276690958474951</v>
+        <v>1.285222142112401</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6869787104520416</v>
       </c>
       <c r="E23" t="n">
-        <v>4.881100305106249</v>
+        <v>4.863019547459867</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.504390548456767</v>
+        <v>-3.520469940790414</v>
       </c>
       <c r="G23" t="n">
-        <v>1.355834213913071</v>
+        <v>1.365270458545269</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7871791786336954</v>
       </c>
       <c r="E24" t="n">
-        <v>4.950668802229496</v>
+        <v>4.932501473531444</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.621690388423897</v>
+        <v>-3.638507208715874</v>
       </c>
       <c r="G24" t="n">
-        <v>1.418406196042137</v>
+        <v>1.42836816306085</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8620250455018842</v>
       </c>
       <c r="E25" t="n">
-        <v>4.948794145456027</v>
+        <v>4.932636839175875</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.722981666917839</v>
+        <v>-3.739658399508019</v>
       </c>
       <c r="G25" t="n">
-        <v>1.457803894648294</v>
+        <v>1.467854006737799</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9166393253698467</v>
       </c>
       <c r="E26" t="n">
-        <v>4.941602452090804</v>
+        <v>4.927436279999098</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.739441971878841</v>
+        <v>-3.755271882181762</v>
       </c>
       <c r="G26" t="n">
-        <v>1.484337134976059</v>
+        <v>1.495166386530608</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9559961802578762</v>
       </c>
       <c r="E27" t="n">
-        <v>4.904597262549025</v>
+        <v>4.892795267177513</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.687851134149529</v>
+        <v>-3.700880077426095</v>
       </c>
       <c r="G27" t="n">
-        <v>1.479166482162587</v>
+        <v>1.489540842191079</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9827532091584629</v>
       </c>
       <c r="E28" t="n">
-        <v>4.754506669237398</v>
+        <v>4.743002163479812</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.616379647908628</v>
+        <v>-3.628267427322252</v>
       </c>
       <c r="G28" t="n">
-        <v>1.433370395828343</v>
+        <v>1.444506581111545</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9972659563302483</v>
       </c>
       <c r="E29" t="n">
-        <v>4.628470236137488</v>
+        <v>4.618025045248537</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.526107290273352</v>
+        <v>-3.537485087491674</v>
       </c>
       <c r="G29" t="n">
-        <v>1.387531810977825</v>
+        <v>1.397978575885897</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.000420265982843</v>
       </c>
       <c r="E30" t="n">
-        <v>4.482501998904548</v>
+        <v>4.474715326311473</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.403861882227095</v>
+        <v>-3.417939909248008</v>
       </c>
       <c r="G30" t="n">
-        <v>1.334339408792589</v>
+        <v>1.344496554182342</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9935424546127904</v>
       </c>
       <c r="E31" t="n">
-        <v>4.330151114134733</v>
+        <v>4.323725968081583</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.283746122051957</v>
+        <v>-3.298497042247227</v>
       </c>
       <c r="G31" t="n">
-        <v>1.264662304349971</v>
+        <v>1.272552862205052</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9805151018887159</v>
       </c>
       <c r="E32" t="n">
-        <v>4.190338865685199</v>
+        <v>4.182717465099861</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.146573503668845</v>
+        <v>-3.162194069428633</v>
       </c>
       <c r="G32" t="n">
-        <v>1.196409687212131</v>
+        <v>1.205010127690918</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9674438978266321</v>
       </c>
       <c r="E33" t="n">
-        <v>3.987088924589884</v>
+        <v>3.980139630169341</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.026718243658283</v>
+        <v>-3.044268556860786</v>
       </c>
       <c r="G33" t="n">
-        <v>1.125360038095739</v>
+        <v>1.133296242505337</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9575269435127811</v>
       </c>
       <c r="E34" t="n">
-        <v>3.73020742997449</v>
+        <v>3.722645842115762</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.946987092078357</v>
+        <v>-2.963770857968786</v>
       </c>
       <c r="G34" t="n">
-        <v>1.065937668228396</v>
+        <v>1.073604715368251</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9533232645723887</v>
       </c>
       <c r="E35" t="n">
-        <v>3.489415558817032</v>
+        <v>3.48194683808646</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.858320233946808</v>
+        <v>-2.876995183811479</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9726487029471466</v>
+        <v>0.9817874579654183</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9547902277230744</v>
       </c>
       <c r="E36" t="n">
-        <v>3.233228206634132</v>
+        <v>3.227654604925607</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.788536096203941</v>
+        <v>-2.804447068491609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9000864214551849</v>
+        <v>0.908871022171164</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9601905030955029</v>
       </c>
       <c r="E37" t="n">
-        <v>2.983351097108527</v>
+        <v>2.9762994914451</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.689716027730442</v>
+        <v>-2.70527678076362</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8440686549472147</v>
+        <v>0.8510210974059998</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9678207348917004</v>
       </c>
       <c r="E38" t="n">
-        <v>2.700292090486781</v>
+        <v>2.695790395799861</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.597895622289366</v>
+        <v>-2.611195296854796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7784430757228251</v>
+        <v>0.7861258630538938</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9750867972219966</v>
       </c>
       <c r="E39" t="n">
-        <v>2.446272162633913</v>
+        <v>2.442601550043039</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.487153932991135</v>
+        <v>-2.502587977485049</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7088903187907903</v>
+        <v>0.7165494958350395</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9784826308023873</v>
       </c>
       <c r="E40" t="n">
-        <v>2.211677204757016</v>
+        <v>2.208505556227595</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.39210364031315</v>
+        <v>-2.408475800203359</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6537713172010828</v>
+        <v>0.6597494418237828</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9768218763353655</v>
       </c>
       <c r="E41" t="n">
-        <v>2.010216923402619</v>
+        <v>2.006686398513542</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.295421089806377</v>
+        <v>-2.310715046598495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5887438652427875</v>
+        <v>0.5944969051311415</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9685513095087287</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760684524064579</v>
+        <v>1.759894366465686</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.197044894725084</v>
+        <v>-2.211880811952903</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5181585517671795</v>
+        <v>0.5233764251542913</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9525270499290476</v>
       </c>
       <c r="E43" t="n">
-        <v>1.543636731351941</v>
+        <v>1.542785187007318</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.115644495867019</v>
+        <v>-2.130680313523244</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4644262610233379</v>
+        <v>0.4693796991980712</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9296855876401895</v>
       </c>
       <c r="E44" t="n">
-        <v>1.316046158564832</v>
+        <v>1.317401389028272</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.027018562232623</v>
+        <v>-2.042031556611589</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4145676313370174</v>
+        <v>0.4174087358509651</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.899028773124198</v>
       </c>
       <c r="E45" t="n">
-        <v>1.105020563010292</v>
+        <v>1.105993306827256</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.947366898618323</v>
+        <v>-1.961603901570488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3548855483146591</v>
+        <v>0.3572025044612138</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8608523599304491</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9064013861698432</v>
+        <v>0.90835789193762</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.880233409075727</v>
+        <v>-1.894291760857624</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2860300818533605</v>
+        <v>0.2886665638815392</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8161780688347571</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7465518743061519</v>
+        <v>0.7492749273860021</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.830939065244393</v>
+        <v>-1.843543810367769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2468464498477012</v>
+        <v>0.2485212061927652</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.766179319631616</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5854998118337869</v>
+        <v>0.5877113086992143</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.765162380184359</v>
+        <v>-1.7785478387919</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2012565600183481</v>
+        <v>0.201842095131472</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7132706996254001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4586401667334366</v>
+        <v>0.4616386731595144</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.716683378257858</v>
+        <v>-1.729787874452247</v>
       </c>
       <c r="G49" t="n">
-        <v>0.149044771745683</v>
+        <v>0.1512830269361726</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6594081716204466</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3559102347626259</v>
+        <v>0.3561683738985192</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.655095945089165</v>
+        <v>-1.669603679330194</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1144084809814614</v>
+        <v>0.1152017866185969</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6049884749649738</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2257278352972099</v>
+        <v>0.2267068751906589</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.602530789523768</v>
+        <v>-1.615514873255378</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07757171148566137</v>
+        <v>0.07860269401011333</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5520432860717729</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1188188825593459</v>
+        <v>0.1196814450378187</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.559680479975039</v>
+        <v>-1.574096134097471</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04660131125494904</v>
+        <v>0.04699166799703161</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5016005535978658</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02867795552069811</v>
+        <v>0.03123101453544782</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.539428362950824</v>
+        <v>-1.551495580544275</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007184724419337215</v>
+        <v>0.007469621880292639</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.453488130129326</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06265765203101691</v>
+        <v>-0.05937897020134757</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.521885919843927</v>
+        <v>-1.534250627051305</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01341603784024619</v>
+        <v>-0.01282578066975843</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4093745853120669</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1348059664940765</v>
+        <v>-0.1316642243279603</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.509233954146913</v>
+        <v>-1.522123596731244</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04313666688864577</v>
+        <v>-0.04249761512539769</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3681004013054425</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2026729489471983</v>
+        <v>-0.1977021965621307</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.514691078440462</v>
+        <v>-1.527283231410868</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07448955376583417</v>
+        <v>-0.07452260816738149</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3295533497551134</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2585348875621597</v>
+        <v>-0.2544865103821743</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.511406887543868</v>
+        <v>-1.524500365604408</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1066688006817054</v>
+        <v>-0.1042699955408432</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2927972988836936</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3422380763946877</v>
+        <v>-0.3368958554969931</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.510582101524307</v>
+        <v>-1.523620488915601</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1271955840425877</v>
+        <v>-0.1254972174107043</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2567109144022036</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4160973496426011</v>
+        <v>-0.4101097809051733</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.529775690689447</v>
+        <v>-1.541366767498705</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1508971639711335</v>
+        <v>-0.1494569364751433</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.220926949611407</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4855572394464792</v>
+        <v>-0.4819291253718811</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.54421652911782</v>
+        <v>-1.555336187200249</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1828009575407771</v>
+        <v>-0.1800936446521399</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.185068167752604</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5572050158289652</v>
+        <v>-0.5528197985570215</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.572802290379762</v>
+        <v>-1.583180585456058</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2051268447573061</v>
+        <v>-0.202817758706358</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1485033765021258</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6119210685236197</v>
+        <v>-0.6071218842227739</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.602214411680387</v>
+        <v>-1.614219455518547</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2180999103550663</v>
+        <v>-0.2164833927174905</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1109328380155899</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6640478597637346</v>
+        <v>-0.6587009168086762</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.64681266946332</v>
+        <v>-1.65816370835658</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2513306020439665</v>
+        <v>-0.2492072502493318</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.07269511567006658</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7196123087647701</v>
+        <v>-0.7134610420387271</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.68804173931711</v>
+        <v>-1.698582945372461</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2730866943385846</v>
+        <v>-0.2719628446859759</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.03448895736672188</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7947119090802686</v>
+        <v>-0.7868858860091615</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.732695087769289</v>
+        <v>-1.743290597484325</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2990454176870755</v>
+        <v>-0.2962200533643408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.00254293618204816</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8679470837465864</v>
+        <v>-0.8568746462377966</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.77173548403491</v>
+        <v>-1.782339650855113</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3196446059275376</v>
+        <v>-0.3178911486264087</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03782777386572875</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9208183860310765</v>
+        <v>-0.9099812643809212</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.80232733266695</v>
+        <v>-1.813948315839513</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.343092768777554</v>
+        <v>-0.3409410846387359</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.07129554292899105</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.960233398847567</v>
+        <v>-0.9454218789161275</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.835994814662011</v>
+        <v>-1.848256423616943</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3674050681251644</v>
+        <v>-0.3643609151445689</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1024728969476399</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9822767496318224</v>
+        <v>-0.9658770444069906</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.87527524884363</v>
+        <v>-1.890396063532405</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3861547838980982</v>
+        <v>-0.3834805254110083</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1322721513599991</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9798433160702916</v>
+        <v>-0.9634979145051445</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.906584063185422</v>
+        <v>-1.92065500712029</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4088537136463754</v>
+        <v>-0.4045566414452245</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1614942797956676</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9859512972704989</v>
+        <v>-0.9722966813932155</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.932519176247093</v>
+        <v>-1.947049733765381</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4182726440682387</v>
+        <v>-0.413824466031443</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1909459107713281</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9872947225905291</v>
+        <v>-0.971257828773157</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.975658318304581</v>
+        <v>-1.989632460063489</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4233819101359808</v>
+        <v>-0.4191399286040754</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2211147203422706</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9500400510180237</v>
+        <v>-0.9330005070203831</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.9977543987294</v>
+        <v>-2.014016377281119</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4358434195193183</v>
+        <v>-0.4317163413832679</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2529324522943028</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8974449890893219</v>
+        <v>-0.8816268839298106</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.035537940726663</v>
+        <v>-2.050625701013891</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4357395342573124</v>
+        <v>-0.430455552067106</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2853019160944184</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8383838566103168</v>
+        <v>-0.8220746574849598</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.061205470537713</v>
+        <v>-2.077097554595925</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4425975355688195</v>
+        <v>-0.4375811366292343</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3182971802189266</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7488764722679926</v>
+        <v>-0.7333440515789974</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.092202629093488</v>
+        <v>-2.105751785689644</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4347022556563753</v>
+        <v>-0.4303894432640114</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3510846259725129</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.653627853180724</v>
+        <v>-0.6362979026552035</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.085919144761256</v>
+        <v>-2.097816368289607</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4207155217444974</v>
+        <v>-0.4173219365189731</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3824166585583144</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5422329459471531</v>
+        <v>-0.525423995750783</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.09001474251488</v>
+        <v>-2.100043605346247</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4127132085318047</v>
+        <v>-0.4093353634974934</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4112898764879198</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3848719583142381</v>
+        <v>-0.3682975369669418</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.072876822322158</v>
+        <v>-2.081824334017191</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3876674162736681</v>
+        <v>-0.3846059490827383</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4367806696611021</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2446284286254681</v>
+        <v>-0.2269537679123827</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.039775987210765</v>
+        <v>-2.048695953571176</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3680913404620514</v>
+        <v>-0.3646867371026781</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4577451610007848</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.04431718122962129</v>
+        <v>-0.02765776284977481</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.006256463013106</v>
+        <v>-2.016443514766164</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3414274565472178</v>
+        <v>-0.3372893602773183</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4744656843168666</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1272965495466714</v>
+        <v>0.1427738795664211</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.963068526362858</v>
+        <v>-1.97356251184457</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3207291051021138</v>
+        <v>-0.3145211736877039</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4863711540385959</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3340313689765463</v>
+        <v>0.350890687784798</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.904858938228477</v>
+        <v>-1.914237731162747</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2820066606989955</v>
+        <v>-0.2771287754420847</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4932617786714059</v>
       </c>
       <c r="E84" t="n">
-        <v>0.544062184446425</v>
+        <v>0.5575184739144244</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.823246046789036</v>
+        <v>-1.831109059309493</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2512156986481115</v>
+        <v>-0.2449967490998525</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4954811329365857</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7266200701731212</v>
+        <v>0.7384629900417876</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.707360463002394</v>
+        <v>-1.714944087128821</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2254505796515405</v>
+        <v>-0.2178921398310546</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4927908180575117</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9412328553051061</v>
+        <v>0.95435545271939</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.616261745328435</v>
+        <v>-1.621897520792252</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1916548150980935</v>
+        <v>-0.1841766502527939</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4858960905167504</v>
       </c>
       <c r="E87" t="n">
-        <v>1.151833465696896</v>
+        <v>1.162991687247796</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.494834040215693</v>
+        <v>-1.497841990756499</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1538862262824835</v>
+        <v>-0.1479805065393633</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4760217642359629</v>
       </c>
       <c r="E88" t="n">
-        <v>1.320716273297732</v>
+        <v>1.329562260759442</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.339952919708387</v>
+        <v>-1.344496325902022</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1268398557211738</v>
+        <v>-0.1199692622566962</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4629947378297823</v>
       </c>
       <c r="E89" t="n">
-        <v>1.453544598906054</v>
+        <v>1.461192757816454</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158533049806391</v>
+        <v>-1.163388111786043</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09920795004674017</v>
+        <v>-0.0923908732323869</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4483168417280264</v>
       </c>
       <c r="E90" t="n">
-        <v>1.568605396673134</v>
+        <v>1.575616077839407</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9729081878218407</v>
+        <v>-0.9771973899273851</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07463121548675124</v>
+        <v>-0.0688262329673943</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4330585462168933</v>
       </c>
       <c r="E91" t="n">
-        <v>1.645293182282025</v>
+        <v>1.654154909934948</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7775865810405171</v>
+        <v>-0.7808196163156688</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07785638066629634</v>
+        <v>-0.07173974236092187</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.418371722009072</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70579375524746</v>
+        <v>1.711331154516196</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5728334516843597</v>
+        <v>-0.5735984249773118</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07175076049477097</v>
+        <v>-0.06606225539039029</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.405770467766997</v>
       </c>
       <c r="E93" t="n">
-        <v>1.714019579175377</v>
+        <v>1.717635101097005</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002422550337393</v>
+        <v>-0.4002139226895559</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07667744034444213</v>
+        <v>-0.07210806283530623</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3943149484019751</v>
       </c>
       <c r="E94" t="n">
-        <v>1.700558567650013</v>
+        <v>1.703629478955671</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2151454764643849</v>
+        <v>-0.2147000290530569</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09645656462270658</v>
+        <v>-0.09365953264415525</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3837792859608923</v>
       </c>
       <c r="E95" t="n">
-        <v>1.667944891456663</v>
+        <v>1.670447581859531</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0745525145306862</v>
+        <v>-0.075221472657239</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1018019335586437</v>
+        <v>-0.09849649340391227</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.372703809472718</v>
       </c>
       <c r="E96" t="n">
-        <v>1.60605445960712</v>
+        <v>1.605829374872774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03372426082358811</v>
+        <v>0.03583659448437364</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1149748995848092</v>
+        <v>-0.1133032912779878</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3596908311590213</v>
       </c>
       <c r="E97" t="n">
-        <v>1.511915524000369</v>
+        <v>1.508926461689019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09673696830661854</v>
+        <v>0.09911058914153999</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1370882942199625</v>
+        <v>-0.1363138768122826</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3408825372389371</v>
       </c>
       <c r="E98" t="n">
-        <v>1.380100866706164</v>
+        <v>1.379337467432333</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1449586181067864</v>
+        <v>0.1467230935417645</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1455549430734389</v>
+        <v>-0.1446624742316614</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3170645015716507</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252361344917007</v>
+        <v>1.251539706935688</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1567968159180889</v>
+        <v>0.1599763345431163</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1605821036244966</v>
+        <v>-0.1600752694674378</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2861600277701556</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124193689926855</v>
+        <v>1.123935550790962</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1749499784440497</v>
+        <v>0.1793698241366621</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1677486126837786</v>
+        <v>-0.1672527966605689</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2532017688475056</v>
       </c>
       <c r="E101" t="n">
-        <v>1.012506015136723</v>
+        <v>1.010928847977179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1864891126223051</v>
+        <v>0.1903596256415835</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1914816729947504</v>
+        <v>-0.1908630834800792</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2158257333591366</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8965779328338056</v>
+        <v>0.8956256512654187</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1832985758634286</v>
+        <v>0.18924207206546</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1942125961702071</v>
+        <v>-0.1951396934326532</v>
       </c>
     </row>
   </sheetData>
